--- a/data/income_statement/2digits/size/16_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/16_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3806755.80082</v>
+        <v>3701801.2906</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4851364.24792</v>
+        <v>4757763.497819999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6214475.54622</v>
+        <v>6074481.22696</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7091489.38503</v>
+        <v>6974966.48157</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7783630.041139999</v>
+        <v>7678739.98236</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7405727.52897</v>
+        <v>9273789.10736</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5538604.226489999</v>
+        <v>10711868.99696</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11043767.56988</v>
+        <v>10707408.25149</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>13571933.93525</v>
+        <v>13200584.53844</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15983103.24301</v>
+        <v>15615727.57003</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>18344567.7689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>18070131.68957</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>23897848.214</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3339531.02082</v>
+        <v>3247511.15962</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4269341.46695</v>
+        <v>4185036.15023</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5422608.563270001</v>
+        <v>5296372.04912</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6221438.66847</v>
+        <v>6113935.07834</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6739161.77232</v>
+        <v>6644418.042090001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6414154.24105</v>
+        <v>8004186.86041</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4587008.083219999</v>
+        <v>9271928.29944</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9279764.594230002</v>
+        <v>8977120.687100001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>11066971.00369</v>
+        <v>10739347.64316</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12649499.76719</v>
+        <v>12390455.89207</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>14556343.47347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14347461.86437</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>18663341.947</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>434568.82767</v>
+        <v>423654.17058</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>539909.96592</v>
+        <v>537476.27489</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>748223.65367</v>
+        <v>741870.0815600001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>836084.52084</v>
+        <v>828722.22621</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1002029.7103</v>
+        <v>992246.0241700001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>953448.0038300001</v>
+        <v>1219344.89228</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>902818.5290300001</v>
+        <v>1364874.85128</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1685390.9456</v>
+        <v>1658576.36397</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2368119.97354</v>
+        <v>2339838.60872</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3207244.97436</v>
+        <v>3108952.32189</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3597518.07422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3535297.07209</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5060632.433</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>32655.95233</v>
+        <v>30635.9604</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>42112.81505</v>
+        <v>35251.0727</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>43643.32928</v>
+        <v>36239.09628</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>33966.19572</v>
+        <v>32309.17702</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>42438.55852</v>
+        <v>42075.91609999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>38125.28408999999</v>
+        <v>50257.35467</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>48777.61424</v>
+        <v>75065.84624000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>78612.03005</v>
+        <v>71711.20042000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>136842.95802</v>
+        <v>121398.28656</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>126358.50146</v>
+        <v>116319.35607</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>190706.22121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>187372.75311</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>173873.834</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>138977.71922</v>
+        <v>138234.56222</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>197556.78105</v>
+        <v>196522.82286</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>248595.61939</v>
+        <v>246086.67854</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>259749.05359</v>
+        <v>259094.39469</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>363473.84791</v>
+        <v>362929.86631</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>276796.8774000001</v>
+        <v>454943.24037</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>139553.40325</v>
+        <v>479196.38926</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>486421.35335</v>
+        <v>483283.8242</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>615868.8631800001</v>
+        <v>611772.31575</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>695120.4888200001</v>
+        <v>683636.8830800001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1222446.74202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1219802.41053</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1616982.934</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>10772.85594</v>
+        <v>10186.8092</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>16208.54886</v>
+        <v>15476.64183</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>14419.78102</v>
+        <v>12456.28226</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>15414.23799</v>
+        <v>14847.00942</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>15192.4316</v>
+        <v>14762.69472</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>15996.05032</v>
+        <v>16975.58736</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>20954.89315</v>
+        <v>28244.48927</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>43825.53070999999</v>
+        <v>41432.08218</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>46213.67793</v>
+        <v>42445.07326</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>44207.06267</v>
+        <v>37586.47565</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>33906.54040999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>32476.20734</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>39344.911</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>99216.28239000001</v>
+        <v>99108.29586</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>146574.20146</v>
+        <v>146565.26225</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>186567.81549</v>
+        <v>186208.10532</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>193196.03277</v>
+        <v>193113.83419</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>284544.81632</v>
+        <v>284514.20814</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>249629.19474</v>
+        <v>363017.2927</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>93117.14572</v>
+        <v>359399.23988</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>344629.50793</v>
+        <v>344336.18598</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>432533.89157</v>
+        <v>432334.00402</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>472061.52808</v>
+        <v>468076.31614</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>964984.5793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>964497.97986</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1323466.163</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>28988.58089</v>
+        <v>28939.45716</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>34774.03073</v>
+        <v>34480.91878</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>47608.02288</v>
+        <v>47422.29096</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>51138.78283</v>
+        <v>51133.55108</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>63736.59999</v>
+        <v>63652.96345</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>11171.63234</v>
+        <v>74950.36031</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>25481.36438</v>
+        <v>91552.66011</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>97966.31470999999</v>
+        <v>97515.55604000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>137121.29368</v>
+        <v>136993.23847</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>178851.89807</v>
+        <v>177974.09129</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>223555.62231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>222828.22333</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>254171.86</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3667778.0816</v>
+        <v>3563566.72838</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4653807.46687</v>
+        <v>4561240.67496</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5965879.92683</v>
+        <v>5828394.548419999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6831740.33144</v>
+        <v>6715872.08688</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7420156.19323</v>
+        <v>7315810.11605</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7128930.65157</v>
+        <v>8818845.86699</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5399050.82324</v>
+        <v>10232672.6077</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10557346.21653</v>
+        <v>10224124.42729</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>12956065.07207</v>
+        <v>12588812.22269</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>15287982.75419</v>
+        <v>14932090.68695</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>17122121.02688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16850329.27904</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>22280865.28</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3037736.46855</v>
+        <v>2948637.89481</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3821139.60945</v>
+        <v>3738268.91176</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4961403.182560001</v>
+        <v>4844149.066529999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5520048.42125</v>
+        <v>5429719.421099999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6141311.77113</v>
+        <v>6057553.00657</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5850239.55268</v>
+        <v>7195130.70928</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4452660.693560001</v>
+        <v>8365755.816389999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8260270.59667</v>
+        <v>7989650.9712</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>10287799.2843</v>
+        <v>9989052.743709998</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11782035.35619</v>
+        <v>11542106.15514</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13922139.53825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13724108.19849</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>17144279.118</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2583015.91394</v>
+        <v>2511569.91346</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3338775.89792</v>
+        <v>3275768.67479</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4289542.134670001</v>
+        <v>4212443.90444</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4741558.6473</v>
+        <v>4672934.8838</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5251330.81782</v>
+        <v>5189505.224479999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4968030.86209</v>
+        <v>6257556.95804</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3909421.81398</v>
+        <v>7000799.82867</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7584886.6604</v>
+        <v>7401760.92141</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>9488656.022329999</v>
+        <v>9291688.59808</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>11193002.59982</v>
+        <v>10974768.80308</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>13188618.50093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12991261.32603</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>16140792.526</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>442458.0252</v>
+        <v>425796.17959</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>454114.5049</v>
+        <v>435442.68945</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>621897.75916</v>
+        <v>586444.0160500001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>741901.3894400001</v>
+        <v>720425.6646899999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>824462.2106699999</v>
+        <v>802918.41262</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>852979.97566</v>
+        <v>895455.3072799999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>457677.3923</v>
+        <v>1264643.6848</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>558333.84243</v>
+        <v>477032.16815</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>653401.12875</v>
+        <v>580261.1348100001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>444187.54795</v>
+        <v>422492.14364</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>525829.70788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>525460.56245</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>751227.259</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>838.1579199999999</v>
+        <v>249.76049</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>12313.18802</v>
+        <v>11121.52891</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>11336.29903</v>
+        <v>6654.407920000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>5342.03482</v>
+        <v>5150.88748</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>24090.60694</v>
+        <v>23725.91071</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>15671.05596</v>
+        <v>12499.51472</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>10304.62103</v>
+        <v>8415.230019999999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>17557.08588</v>
+        <v>14384.59126</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>62396.03978</v>
+        <v>34965.36115</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>36144.35279</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3861.48621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3661.03797</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>34904.161</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>11424.37149</v>
+        <v>11022.04127</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>15936.01861</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>38626.98970000001</v>
+        <v>38606.73811999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>31246.34969</v>
+        <v>31207.98513</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>41428.13570000001</v>
+        <v>41403.45876</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>13557.65897</v>
+        <v>29618.92924</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>75256.86625000001</v>
+        <v>91897.0729</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>99493.00795999999</v>
+        <v>96473.29037999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>83346.09344</v>
+        <v>82137.64967</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>108700.85563</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>203829.84323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>203725.27204</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>217355.172</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>630041.61305</v>
+        <v>614928.83357</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>832667.85742</v>
+        <v>822971.7632</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1004476.74427</v>
+        <v>984245.4818899999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1311691.91019</v>
+        <v>1286152.66578</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1278844.4221</v>
+        <v>1258257.10948</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1278691.09889</v>
+        <v>1623715.15771</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>946390.12968</v>
+        <v>1866916.79131</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2297075.61986</v>
+        <v>2234473.45609</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2668265.78777</v>
+        <v>2599759.47898</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3505947.398</v>
+        <v>3389984.53181</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3199981.48863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3126221.08055</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5136586.162</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>274826.05557</v>
+        <v>259244.7199</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>340129.5593</v>
+        <v>330604.98426</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>408112.31447</v>
+        <v>395252.92148</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>459277.64617</v>
+        <v>449801.46443</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>562772.6923</v>
+        <v>556143.2662099999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>563104.05136</v>
+        <v>670411.72014</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>496187.52779</v>
+        <v>749652.88666</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>960952.84259</v>
+        <v>925703.75661</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1167685.45454</v>
+        <v>1125424.83514</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1236241.83986</v>
+        <v>1194813.10374</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1448664.65627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1417380.73235</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1738231.063</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2042.02153</v>
@@ -1592,13 +1578,13 @@
         <v>3840.18248</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2255.99053</v>
+        <v>2251.50773</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3008.48452</v>
+        <v>3008.32359</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2765.81474</v>
+        <v>2765.60774</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>4026.85322</v>
@@ -1606,194 +1592,219 @@
       <c r="M21" s="48" t="n">
         <v>6692.847860000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>10188.412</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>186925.28829</v>
+        <v>178257.92945</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>235704.12195</v>
+        <v>232752.78842</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>275381.22639</v>
+        <v>271215.85242</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>302701.70755</v>
+        <v>298861.38348</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>381619.56397</v>
+        <v>377777.8632200001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>395164.76977</v>
+        <v>464086.44468</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>315779.75934</v>
+        <v>495412.53242</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>634455.5731</v>
+        <v>621449.5311799999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>784624.1647</v>
+        <v>763323.0961500001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>835613.18851</v>
+        <v>812640.09566</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>947283.56011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>928876.63436</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1269969.14</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>85858.74575</v>
+        <v>78944.76892</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>102679.16155</v>
+        <v>96105.92004000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>131441.00217</v>
+        <v>122746.98315</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>155581.89513</v>
+        <v>149946.03746</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>179976.13973</v>
+        <v>177188.41439</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>164099.09911</v>
+        <v>202485.09298</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>178151.77792</v>
+        <v>251988.84651</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>323488.78497</v>
+        <v>301245.90184</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>380295.4751</v>
+        <v>359336.13125</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>396601.7981300001</v>
+        <v>378146.15486</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>494688.2483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>481811.25013</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>458073.511</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>355215.55748</v>
+        <v>355684.11367</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>492538.29812</v>
+        <v>492366.77894</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>596364.4297999999</v>
+        <v>588992.5604099999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>852414.26402</v>
+        <v>836351.20135</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>716071.7298000001</v>
+        <v>702113.84327</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>715587.0475300001</v>
+        <v>953303.4375700001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>450202.60189</v>
+        <v>1117263.90465</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1336122.77727</v>
+        <v>1308769.69948</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1500580.33323</v>
+        <v>1474334.64384</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2269705.55814</v>
+        <v>2195171.42807</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1751316.83236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1708840.3482</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3398355.099</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>148615.78069</v>
+        <v>143795.85496</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>174316.50477</v>
+        <v>168052.24022</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>276872.75993</v>
+        <v>250251.36179</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>314151.29061</v>
+        <v>305617.32674</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>332185.58831</v>
+        <v>316925.13092</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>347926.44532</v>
+        <v>562237.8932</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>545119.1141499999</v>
+        <v>902017.33448</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>534487.3462</v>
+        <v>471695.86879</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>999549.8306399999</v>
+        <v>859935.8997899999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3327733.62386</v>
+        <v>2751159.61693</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1940519.39723</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1574754.32826</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3403464.853</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>300.2285</v>
+        <v>300.17335</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>294.71111</v>
+        <v>292.14104</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>276.44892</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1526.78685</v>
+        <v>1502.69231</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>3011.12595</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5524.13288</v>
+        <v>5688.76907</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5738.10568</v>
+        <v>11566.94212</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4280.76532</v>
+        <v>4186.01913</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1246.76193</v>
+        <v>1231.04781</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>3963.12321</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>16828.44112</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>267108.623</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>815.78158</v>
@@ -1823,7 +1839,7 @@
         <v>4195.814490000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1768.40023</v>
+        <v>95.65022999999999</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>1703.90765</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>19905.21849</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>663.635</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>13122.83371</v>
+        <v>12914.33253</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>12472.50223</v>
+        <v>12472.37923</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>21159.72299</v>
+        <v>17276.24906</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>20443.31511</v>
+        <v>14322.78953</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>17893.56918</v>
+        <v>15809.14184</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16863.83396</v>
+        <v>18735.97705</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>14623.65771</v>
+        <v>23184.39065</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>35562.95770000001</v>
+        <v>30218.87853</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>66865.26423999999</v>
+        <v>61227.06414</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>72154.87651</v>
+        <v>67947.22104</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>48782.62437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>43980.00392</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>137014.084</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1910,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>46.37426</v>
+        <v>33.14358</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0</v>
@@ -1918,59 +1944,69 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>36.213</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2161.8725</v>
+        <v>2087.30888</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2062.45849</v>
+        <v>1979.07506</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2336.24293</v>
+        <v>2173.48738</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>10087.9736</v>
+        <v>10022.9736</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>2197.8123</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1842.32883</v>
+        <v>1601.77573</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2254.16204</v>
+        <v>2953.94833</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>8147.576</v>
+        <v>7957.33034</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3737.10154</v>
+        <v>3498.58954</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6659.79099</v>
+        <v>6650.86599</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>7884.87281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>7319.463839999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>7876.514</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>99.62127</v>
+        <v>97.29101</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>29.95546</v>
+        <v>29.82704</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>24674.83479</v>
+        <v>13838.03819</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>12517.73426</v>
@@ -1979,16 +2015,16 @@
         <v>61.37517</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>784.6042199999999</v>
+        <v>779.2700500000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>16.14841</v>
+        <v>14.66833</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>7.1595</v>
+        <v>6.43411</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>149.12073</v>
+        <v>99.33686</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>835.1235600000001</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>699.70834</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>36693.875</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>115820.12681</v>
+        <v>111762.02996</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>135981.82456</v>
+        <v>131117.09185</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>196151.00023</v>
+        <v>193608.12645</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>247885.93213</v>
+        <v>246400.29158</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>272789.20103</v>
+        <v>260374.48065</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>272440.88177</v>
+        <v>485929.68705</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>482539.60909</v>
+        <v>794259.8213300001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>426999.68278</v>
+        <v>373185.74474</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>836013.6500800001</v>
+        <v>704281.27756</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3149852.78983</v>
+        <v>2577681.57382</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1744646.53828</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1385875.44431</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2853112.254</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1374.5371</v>
@@ -2054,16 +2100,16 @@
         <v>2057.36673</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>10013.75433</v>
+        <v>9725.971099999999</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>21257.74032</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>15115.4748</v>
+        <v>36226.44135</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>17396.95883</v>
+        <v>14846.78492</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>14695.42887</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>27365.07131</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>8635.298000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2087,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>0.17176</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>14920.77922</v>
+        <v>14444.40055</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>20884.11347</v>
+        <v>19570.78655</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>30350.90445</v>
+        <v>21155.57793</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>19582.11816</v>
+        <v>18743.41496</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>20624.10217</v>
+        <v>20150.57573</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>27444.52311</v>
+        <v>28149.0237</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>23128.04877</v>
+        <v>32107.21472</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>37061.32319</v>
+        <v>36263.75414</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>75650.05383</v>
+        <v>73723.93626999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>79245.46576000001</v>
+        <v>79059.25531000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>74406.92251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>72780.97693</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>92324.357</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>84154.07912000001</v>
+        <v>78669.22629999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>90992.60795000001</v>
+        <v>87335.50107</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>163389.87136</v>
+        <v>157409.65575</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>128001.34805</v>
+        <v>124266.53314</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>441146.42121</v>
+        <v>436116.06383</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>298720.80182</v>
+        <v>348179.86327</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>651576.6542400001</v>
+        <v>858794.9439500001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>726289.3661699999</v>
+        <v>671357.72134</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>881989.7918</v>
+        <v>745774.33978</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2762311.76745</v>
+        <v>2181990.33853</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1247886.01914</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>893849.39782</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1565378.392</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>641.42028</v>
@@ -2213,16 +2279,16 @@
         <v>699.42777</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>662.34014</v>
+        <v>665.4545400000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>12.74955</v>
+        <v>2056.09939</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1331.44968</v>
+        <v>842.99587</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>542.2097400000001</v>
+        <v>519.4023599999999</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>459.80999</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>16.42603</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>586.36</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>11935.39088</v>
+        <v>11462.69161</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>12100.54449</v>
+        <v>11986.19185</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5935.19886</v>
+        <v>5530.851560000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>39766.31034</v>
+        <v>38200.52030999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>20519.22372</v>
+        <v>19638.15103</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>23333.56457</v>
+        <v>23652.60597</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>25136.47157</v>
+        <v>43021.05805</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>72272.57927000002</v>
+        <v>71402.37881000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>34497.32827000001</v>
+        <v>34340.93827000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>86460.97162000001</v>
+        <v>85934.53651999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>46794.12837</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>44418.32157</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>32908.561</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2294,7 +2370,7 @@
         <v>0.03183</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>130.86184</v>
+        <v>0.28109</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3979.757</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>65634.81875999999</v>
+        <v>60679.8343</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>74986.59567</v>
+        <v>71457.36615</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>150732.08318</v>
+        <v>145242.75726</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>75453.47430000002</v>
+        <v>73284.44942</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>384295.1149</v>
+        <v>380564.44436</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>244872.51308</v>
+        <v>285467.42575</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>606554.5505</v>
+        <v>790849.0639900001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>628146.58663</v>
+        <v>577046.64593</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>819780.5701</v>
+        <v>683744.75983</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2641995.36166</v>
+        <v>2062200.36784</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1174266.2508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>823013.58135</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1509774.03</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1570.31747</v>
@@ -2366,16 +2452,16 @@
         <v>2849.32367</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>27488.6069</v>
+        <v>27072.46206</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>25267.04369</v>
+        <v>33156.8722</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>15921.39571</v>
+        <v>15713.43477</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>15995.25049</v>
+        <v>13600.39526</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>11726.32082</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>14319.03419</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>7822.329</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,152 +2516,172 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4372.13173</v>
+        <v>4314.96264</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1777.34712</v>
+        <v>1763.8224</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2365.01421</v>
+        <v>2278.47182</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>6778.311439999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7330.23846</v>
+        <v>7327.769149999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4585.308510000001</v>
+        <v>5237.47298</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3820.62507</v>
+        <v>7155.00666</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>8543.500099999999</v>
+        <v>8465.305470000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>9461.368829999999</v>
+        <v>9460.924459999998</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>5927.64705</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>12490.17975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>12082.03468</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>10307.355</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>206873.85821</v>
+        <v>201107.48127</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>148924.30319</v>
+        <v>142141.92576</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>483346.47531</v>
+        <v>476285.47651</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>298479.81244</v>
+        <v>293772.03228</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>635262.0824900001</v>
+        <v>629476.6169599999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>239624.02242</v>
+        <v>557658.3601599999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>359136.5097</v>
+        <v>961777.1650999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>909966.7073400001</v>
+        <v>884616.3558100001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1315115.13782</v>
+        <v>1282931.00355</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2640226.01348</v>
+        <v>2619670.61907</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1972389.02223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1946323.67865</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3072901.516</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>137971.39775</v>
+        <v>132314.86902</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>88453.64970000001</v>
+        <v>81671.27227</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>237150.10408</v>
+        <v>230967.62944</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>168370.62724</v>
+        <v>163662.84708</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>211358.19343</v>
+        <v>208718.65605</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>167212.48944</v>
+        <v>222609.75283</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>244817.89025</v>
+        <v>324622.43231</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>379983.3099400001</v>
+        <v>356133.35492</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>521038.92349</v>
+        <v>488854.78922</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>883169.30443</v>
+        <v>862613.91002</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>985111.0473300001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>959045.70375</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1089653.517</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>68902.46045999999</v>
+        <v>68792.61225000001</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>60470.65349</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>246196.37123</v>
+        <v>245317.84707</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>130109.1852</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>423903.88906</v>
+        <v>420757.96091</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>72411.53298</v>
+        <v>335048.60733</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>114318.61945</v>
+        <v>637154.7327899999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>529983.3974</v>
+        <v>528483.00089</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>794076.21433</v>
@@ -2581,95 +2692,110 @@
       <c r="M46" s="48" t="n">
         <v>987277.9749</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1983247.999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>212803.40084</v>
+        <v>219703.26106</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>426937.89175</v>
+        <v>430941.59233</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>226500.84306</v>
+        <v>205548.78994</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>740084.3941400001</v>
+        <v>723929.9626699999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-28151.18559</v>
+        <v>-46553.7066</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>525168.6686100001</v>
+        <v>609703.10734</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-15391.4479</v>
+        <v>198709.13008</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>234354.04996</v>
+        <v>224491.49112</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>303025.23425</v>
+        <v>305565.2003</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>194901.40107</v>
+        <v>144670.0874</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>471561.18822</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>443421.59999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2163540.044</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>24058.49379</v>
+        <v>23434.24327</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>34690.52379</v>
+        <v>34578.81571</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>38771.60899</v>
+        <v>37040.82847000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>39584.26365</v>
+        <v>36116.84293</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>53993.90357</v>
+        <v>53864.49522999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>84138.98431</v>
+        <v>90910.56323999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>57958.48983</v>
+        <v>41823.27146</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>63343.53009</v>
+        <v>55845.63709</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>75101.16503</v>
+        <v>66801.88481</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>137579.57805</v>
+        <v>132601.36265</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>151464.22484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>146147.60279</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>192674.179</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>909.9402700000001</v>
+        <v>906.8781700000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>74.71597</v>
+        <v>74</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>23.87831</v>
@@ -2681,130 +2807,145 @@
         <v>496.84188</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>251.87591</v>
+        <v>1050.80158</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4513.54768</v>
+        <v>4626.46205</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2744.04544</v>
+        <v>2698.85744</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1361.7447</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4065.89272</v>
+        <v>2283.19142</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>12994.77375</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2599.002</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>23148.55352</v>
+        <v>22527.3651</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>34615.80782</v>
+        <v>34504.81571</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>38747.73068</v>
+        <v>37016.95016</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>39520.63003</v>
+        <v>36053.20931</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>53497.06168999999</v>
+        <v>53367.65335</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>83887.10840000001</v>
+        <v>89859.76165999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>53444.94215</v>
+        <v>37196.80940999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>60599.48465000001</v>
+        <v>53146.77965</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>73739.42033000001</v>
+        <v>65440.14011</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>133513.68533</v>
+        <v>130318.17123</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>138469.45109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>133152.82904</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>190075.177</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>57809.53011</v>
+        <v>56742.87618</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>78857.74326</v>
+        <v>78487.43755</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>85560.36488000001</v>
+        <v>84404.80986999998</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>165981.98742</v>
+        <v>161330.01346</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>137867.69841</v>
+        <v>137817.86921</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>112845.65156</v>
+        <v>146264.09128</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>57273.07668</v>
+        <v>101710.3762</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>128443.15708</v>
+        <v>119754.19527</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>129120.10612</v>
+        <v>119238.60798</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>197637.69606</v>
+        <v>191476.64878</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>264043.49812</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>261537.5963</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>311175.11</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>40690.74569</v>
+        <v>39968.40422</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>54020.94649</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>44771.69465999999</v>
+        <v>44758.43779</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>118997.50624</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>78097.96457</v>
+        <v>78082.43797</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>61279.62785</v>
+        <v>89815.67304000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>32238.11916</v>
+        <v>63914.61889</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>70232.85873000001</v>
+        <v>70104.78628</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>75046.81428000001</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>182269.47022</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>214053.267</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1160.31798</v>
+        <v>1086.93994</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>431.62974</v>
@@ -2834,184 +2980,207 @@
         <v>15030.11987</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>520.3166699999999</v>
+        <v>510.865</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>730.52708</v>
+        <v>2631.87916</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1011.19798</v>
+        <v>1358.2341</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>16535.4842</v>
+        <v>16534.21553</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>942.758</v>
+        <v>893.9476</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4938.213009999999</v>
+        <v>2943.92155</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>1817.04382</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>2156.616</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>15958.46644</v>
+        <v>15687.53202</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>24405.16703</v>
+        <v>24034.86132</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>40618.27209</v>
+        <v>39475.97395</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>31954.36131</v>
+        <v>27302.38735</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>59249.41717</v>
+        <v>59224.56624</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>50835.49663</v>
+        <v>53816.53908</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>24023.75954</v>
+        <v>36437.52321</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>41674.81415</v>
+        <v>33115.19346</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>53130.53384</v>
+        <v>43297.8461</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>56333.63864</v>
+        <v>52166.88282</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>79956.98407999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>77451.08226000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>94965.227</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>179052.36452</v>
+        <v>186394.62815</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>382770.6722800001</v>
+        <v>387032.97049</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>179712.08717</v>
+        <v>158184.80854</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>613686.6703699999</v>
+        <v>598716.79214</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-112024.98043</v>
+        <v>-130507.08058</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>496462.00136</v>
+        <v>554349.5793</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-14706.03475</v>
+        <v>138822.02534</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>169254.42297</v>
+        <v>160582.93294</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>249006.29316</v>
+        <v>253128.47713</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>134843.28306</v>
+        <v>85794.80127</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>358981.91494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>328031.60648</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2045039.113</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>38007.34417</v>
+        <v>37965.08086</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>60769.08828</v>
+        <v>60583.49655</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>55439.22846</v>
+        <v>52024.33422</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>96213.46559000001</v>
+        <v>92827.63963999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>36413.68898</v>
+        <v>34622.03209</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>83381.58518000001</v>
+        <v>79987.74868</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>23520.51908</v>
+        <v>66524.34342999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>65105.61305000001</v>
+        <v>60646.41421</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>72211.57842999999</v>
+        <v>70026.51647999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>53530.42115000001</v>
+        <v>41750.80491</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>47185.05826</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>36918.04865</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>119104.601</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>141045.02035</v>
+        <v>148429.54729</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>322001.584</v>
+        <v>326449.47394</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>124272.85871</v>
+        <v>106160.47432</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>517473.20478</v>
+        <v>505889.1525</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-148438.66941</v>
+        <v>-165129.11267</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>413080.41618</v>
+        <v>474361.83062</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-38226.55383</v>
+        <v>72297.68191</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>104148.80992</v>
+        <v>99936.51873000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>176794.71473</v>
+        <v>183101.96065</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>81312.86190999999</v>
+        <v>44043.99636</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>311796.85668</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>291113.55783</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1925934.512</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>22</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>